--- a/arquivos/Business Intelligence Completo do ETL ao Power BI na Prática/Fonte Dados/EXCEL/005_PERFORMANCE_VENDAS.xlsx
+++ b/arquivos/Business Intelligence Completo do ETL ao Power BI na Prática/Fonte Dados/EXCEL/005_PERFORMANCE_VENDAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fonte Dados\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\arquivos\Business Intelligence Completo do ETL ao Power BI na Prática\Fonte Dados\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A77E4EF-A4D4-47A4-9A3A-3FCCFFEF7348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4EC4E-E080-4CEC-99F5-EA87BA97E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{339098EF-75FB-487A-8C0A-9393F08BBE7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{339098EF-75FB-487A-8C0A-9393F08BBE7F}"/>
   </bookViews>
   <sheets>
     <sheet name="F_venda" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F311B7-C1DF-482B-9CCB-C79406AA14D1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A5" ca="1" si="0">TODAY()</f>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -552,7 +552,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -564,7 +564,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D5891-E603-4B10-BC08-4D8787321E13}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A5" ca="1" si="0">TODAY()</f>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -634,7 +634,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -646,7 +646,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>45344</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
